--- a/timings.xlsx
+++ b/timings.xlsx
@@ -1,25 +1,46 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D3ABC96-DC77-40F2-8F88-D0D875AC5B03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+  <si>
+    <t>create</t>
+  </si>
+  <si>
+    <t>recommend</t>
+  </si>
+  <si>
+    <t>num users</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -49,8 +70,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -330,13 +352,75 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.77734375" customWidth="1"/>
+    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <f>10*A2</f>
+        <v>100</v>
+      </c>
+      <c r="B3" s="1">
+        <v>5.2337962962962961E-5</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8.9773148148148145E-4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <f t="shared" ref="A4:A9" si="0">10*A3</f>
+        <v>1000</v>
+      </c>
+      <c r="B4" s="1">
+        <v>2.3559027777777779E-4</v>
+      </c>
+      <c r="C4" s="1">
+        <v>8.8109837962962959E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <f t="shared" si="0"/>
+        <v>10000</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.7501967592592593E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <f t="shared" si="0"/>
+        <v>100000</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/timings.xlsx
+++ b/timings.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB1E75B-AA6A-4FF4-B9B2-7CA4DF299F11}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{129BBE65-5186-4689-B6B7-A411C0B20FFC}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -77,8 +77,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="169" formatCode="h:mm:ss.000"/>
+    <numFmt numFmtId="170" formatCode="m:ss.000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -175,7 +176,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -203,13 +204,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="169" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -370,7 +372,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$11:$D$17</c:f>
               <c:numCache>
-                <c:formatCode>h:mm:ss.000</c:formatCode>
+                <c:formatCode>m:ss.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2.9543981481481484E-5</c:v>
@@ -607,7 +609,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="h:mm:ss.000" sourceLinked="1"/>
+        <c:numFmt formatCode="m:ss.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -735,7 +737,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>time of computations per number of users</a:t>
+              <a:t>time of local computations per number of users</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -839,7 +841,7 @@
             <c:numRef>
               <c:f>Sheet1!$I$11:$I$17</c:f>
               <c:numCache>
-                <c:formatCode>h:mm:ss.000</c:formatCode>
+                <c:formatCode>m:ss.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.3240740740740731E-8</c:v>
@@ -1076,7 +1078,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="h:mm:ss.000" sourceLinked="1"/>
+        <c:numFmt formatCode="m:ss.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1337,7 +1339,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$11:$B$17</c:f>
               <c:numCache>
-                <c:formatCode>h:mm:ss.000</c:formatCode>
+                <c:formatCode>m:ss.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3.1171874999999997E-5</c:v>
@@ -1425,7 +1427,7 @@
             <c:numRef>
               <c:f>Sheet1!$C$11:$C$17</c:f>
               <c:numCache>
-                <c:formatCode>h:mm:ss.000</c:formatCode>
+                <c:formatCode>m:ss.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2.9820601851851853E-5</c:v>
@@ -1513,7 +1515,7 @@
             <c:numRef>
               <c:f>Sheet1!$D$11:$D$17</c:f>
               <c:numCache>
-                <c:formatCode>h:mm:ss.000</c:formatCode>
+                <c:formatCode>m:ss.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>2.9543981481481484E-5</c:v>
@@ -1601,7 +1603,7 @@
             <c:numRef>
               <c:f>Sheet1!$E$11:$E$17</c:f>
               <c:numCache>
-                <c:formatCode>h:mm:ss.000</c:formatCode>
+                <c:formatCode>m:ss.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3.0101273148148145E-5</c:v>
@@ -1689,7 +1691,7 @@
             <c:numRef>
               <c:f>Sheet1!$F$11:$F$17</c:f>
               <c:numCache>
-                <c:formatCode>h:mm:ss.000</c:formatCode>
+                <c:formatCode>m:ss.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>3.176793981481482E-5</c:v>
@@ -2095,7 +2097,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="h:mm:ss.000" sourceLinked="1"/>
+        <c:numFmt formatCode="m:ss.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -2349,7 +2351,7 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>time of computations per number of users and number of recommendations</a:t>
+              <a:t>time of local computations per number of users and number of recommendations</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -2482,7 +2484,7 @@
             <c:numRef>
               <c:f>Sheet1!$G$11:$G$17</c:f>
               <c:numCache>
-                <c:formatCode>h:mm:ss.000</c:formatCode>
+                <c:formatCode>m:ss.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.4976851851851855E-8</c:v>
@@ -2572,7 +2574,7 @@
             <c:numRef>
               <c:f>Sheet1!$H$11:$H$17</c:f>
               <c:numCache>
-                <c:formatCode>h:mm:ss.000</c:formatCode>
+                <c:formatCode>m:ss.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8.680555555555555E-9</c:v>
@@ -2662,7 +2664,7 @@
             <c:numRef>
               <c:f>Sheet1!$I$11:$I$17</c:f>
               <c:numCache>
-                <c:formatCode>h:mm:ss.000</c:formatCode>
+                <c:formatCode>m:ss.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>5.3240740740740731E-8</c:v>
@@ -2752,7 +2754,7 @@
             <c:numRef>
               <c:f>Sheet1!$J$11:$J$17</c:f>
               <c:numCache>
-                <c:formatCode>h:mm:ss.000</c:formatCode>
+                <c:formatCode>m:ss.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>8.9699074074074082E-8</c:v>
@@ -2842,7 +2844,7 @@
             <c:numRef>
               <c:f>Sheet1!$K$11:$K$17</c:f>
               <c:numCache>
-                <c:formatCode>h:mm:ss.000</c:formatCode>
+                <c:formatCode>m:ss.000</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
                   <c:v>1.736111111111111E-8</c:v>
@@ -3142,7 +3144,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>h:mm:ss.000</c:formatCode>
+                      <c:formatCode>m:ss.000</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>3.1171874999999997E-5</c:v>
@@ -3250,7 +3252,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>h:mm:ss.000</c:formatCode>
+                      <c:formatCode>m:ss.000</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>2.9820601851851853E-5</c:v>
@@ -3358,7 +3360,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>h:mm:ss.000</c:formatCode>
+                      <c:formatCode>m:ss.000</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>2.9543981481481484E-5</c:v>
@@ -3466,7 +3468,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>h:mm:ss.000</c:formatCode>
+                      <c:formatCode>m:ss.000</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>3.0101273148148145E-5</c:v>
@@ -3574,7 +3576,7 @@
                       </c:ext>
                     </c:extLst>
                     <c:numCache>
-                      <c:formatCode>h:mm:ss.000</c:formatCode>
+                      <c:formatCode>m:ss.000</c:formatCode>
                       <c:ptCount val="7"/>
                       <c:pt idx="0">
                         <c:v>3.176793981481482E-5</c:v>
@@ -3792,7 +3794,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="h:mm:ss.000" sourceLinked="1"/>
+        <c:numFmt formatCode="m:ss.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4151,7 +4153,7 @@
             <c:numRef>
               <c:f>Sheet1!$B$17:$F$17</c:f>
               <c:numCache>
-                <c:formatCode>h:mm:ss.000</c:formatCode>
+                <c:formatCode>m:ss.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>1.4983420138888889E-3</c:v>
@@ -4382,7 +4384,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="h:mm:ss.000" sourceLinked="1"/>
+        <c:numFmt formatCode="m:ss.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -4510,7 +4512,15 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>time of computations per number of recommendations for 10K users</a:t>
+              <a:t>time of local</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>computations per number of recommendations for 10K users</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -4605,7 +4615,7 @@
             <c:numRef>
               <c:f>Sheet1!$G$17:$K$17</c:f>
               <c:numCache>
-                <c:formatCode>h:mm:ss.000</c:formatCode>
+                <c:formatCode>m:ss.000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
                   <c:v>4.2719907407407408E-5</c:v>
@@ -4836,7 +4846,7 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="h:mm:ss.000" sourceLinked="1"/>
+        <c:numFmt formatCode="m:ss.000" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -7231,14 +7241,14 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>87630</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>34290</xdr:rowOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>472440</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>3810</xdr:rowOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7273,8 +7283,8 @@
     <xdr:to>
       <xdr:col>28</xdr:col>
       <xdr:colOff>468630</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>140970</xdr:rowOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>160020</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7639,8 +7649,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O99"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H5" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U36" sqref="U36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -7837,43 +7847,43 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11" s="14">
+      <c r="B11" s="22">
         <f>B27</f>
         <v>3.1171874999999997E-5</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="22">
         <f t="shared" ref="C11:K11" si="1">C27</f>
         <v>2.9820601851851853E-5</v>
       </c>
-      <c r="D11" s="14">
+      <c r="D11" s="22">
         <f t="shared" si="1"/>
         <v>2.9543981481481484E-5</v>
       </c>
-      <c r="E11" s="14">
+      <c r="E11" s="22">
         <f t="shared" si="1"/>
         <v>3.0101273148148145E-5</v>
       </c>
-      <c r="F11" s="14">
+      <c r="F11" s="22">
         <f t="shared" si="1"/>
         <v>3.176793981481482E-5</v>
       </c>
-      <c r="G11" s="14">
+      <c r="G11" s="22">
         <f>G27</f>
         <v>5.4976851851851855E-8</v>
       </c>
-      <c r="H11" s="14">
+      <c r="H11" s="22">
         <f t="shared" si="1"/>
         <v>8.680555555555555E-9</v>
       </c>
-      <c r="I11" s="14">
+      <c r="I11" s="22">
         <f t="shared" si="1"/>
         <v>5.3240740740740731E-8</v>
       </c>
-      <c r="J11" s="14">
+      <c r="J11" s="22">
         <f t="shared" si="1"/>
         <v>8.9699074074074082E-8</v>
       </c>
-      <c r="K11" s="14">
+      <c r="K11" s="22">
         <f t="shared" si="1"/>
         <v>1.736111111111111E-8</v>
       </c>
@@ -7882,43 +7892,43 @@
       <c r="A12">
         <v>100</v>
       </c>
-      <c r="B12" s="14">
+      <c r="B12" s="22">
         <f>B39</f>
         <v>6.2329282407407402E-5</v>
       </c>
-      <c r="C12" s="14">
+      <c r="C12" s="22">
         <f t="shared" ref="C12:K12" si="2">C39</f>
         <v>6.3532986111111103E-5</v>
       </c>
-      <c r="D12" s="14">
+      <c r="D12" s="22">
         <f t="shared" si="2"/>
         <v>7.2456018518518518E-5</v>
       </c>
-      <c r="E12" s="14">
+      <c r="E12" s="22">
         <f t="shared" si="2"/>
         <v>7.0326967592592587E-5</v>
       </c>
-      <c r="F12" s="14">
+      <c r="F12" s="22">
         <f t="shared" si="2"/>
         <v>7.2288773148148161E-5</v>
       </c>
-      <c r="G12" s="14">
+      <c r="G12" s="22">
         <f t="shared" si="2"/>
         <v>4.0509259259259263E-7</v>
       </c>
-      <c r="H12" s="14">
+      <c r="H12" s="22">
         <f t="shared" si="2"/>
         <v>3.1250000000000003E-7</v>
       </c>
-      <c r="I12" s="14">
+      <c r="I12" s="22">
         <f t="shared" si="2"/>
         <v>3.5879629629629633E-7</v>
       </c>
-      <c r="J12" s="14">
+      <c r="J12" s="22">
         <f t="shared" si="2"/>
         <v>4.1956018518518513E-7</v>
       </c>
-      <c r="K12" s="14">
+      <c r="K12" s="22">
         <f t="shared" si="2"/>
         <v>3.5590277777777781E-7</v>
       </c>
@@ -7927,43 +7937,43 @@
       <c r="A13">
         <v>500</v>
       </c>
-      <c r="B13" s="14">
+      <c r="B13" s="22">
         <f>B51</f>
         <v>1.2938078703703703E-4</v>
       </c>
-      <c r="C13" s="14">
+      <c r="C13" s="22">
         <f t="shared" ref="C13:K13" si="3">C51</f>
         <v>1.3799479166666666E-4</v>
       </c>
-      <c r="D13" s="14">
+      <c r="D13" s="22">
         <f t="shared" si="3"/>
         <v>1.4819675925925927E-4</v>
       </c>
-      <c r="E13" s="14">
+      <c r="E13" s="22">
         <f t="shared" si="3"/>
         <v>1.6379918981481481E-4</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="22">
         <f t="shared" si="3"/>
         <v>1.7435474537037037E-4</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="22">
         <f t="shared" si="3"/>
         <v>1.8229166666666666E-6</v>
       </c>
-      <c r="H13" s="14">
+      <c r="H13" s="22">
         <f t="shared" si="3"/>
         <v>1.7447916666666664E-6</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="22">
         <f t="shared" si="3"/>
         <v>1.9305555555555554E-6</v>
       </c>
-      <c r="J13" s="14">
+      <c r="J13" s="22">
         <f t="shared" si="3"/>
         <v>1.7853009259259258E-6</v>
       </c>
-      <c r="K13" s="14">
+      <c r="K13" s="22">
         <f t="shared" si="3"/>
         <v>1.8171296296296298E-6</v>
       </c>
@@ -7972,43 +7982,43 @@
       <c r="A14">
         <v>1000</v>
       </c>
-      <c r="B14" s="14">
+      <c r="B14" s="22">
         <f>B63</f>
         <v>1.9414930555555554E-4</v>
       </c>
-      <c r="C14" s="14">
+      <c r="C14" s="22">
         <f t="shared" ref="C14:K14" si="4">C63</f>
         <v>2.2071469907407413E-4</v>
       </c>
-      <c r="D14" s="14">
+      <c r="D14" s="22">
         <f t="shared" si="4"/>
         <v>2.4940740740740744E-4</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="22">
         <f t="shared" si="4"/>
         <v>2.5996817129629628E-4</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="22">
         <f t="shared" si="4"/>
         <v>2.971846064814815E-4</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="22">
         <f t="shared" si="4"/>
         <v>3.2667824074074076E-6</v>
       </c>
-      <c r="H14" s="14">
+      <c r="H14" s="22">
         <f t="shared" si="4"/>
         <v>3.6689814814814811E-6</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="22">
         <f t="shared" si="4"/>
         <v>3.8263888888888889E-6</v>
       </c>
-      <c r="J14" s="14">
+      <c r="J14" s="22">
         <f t="shared" si="4"/>
         <v>3.709490740740741E-6</v>
       </c>
-      <c r="K14" s="14">
+      <c r="K14" s="22">
         <f t="shared" si="4"/>
         <v>4.0422453703703703E-6</v>
       </c>
@@ -8017,43 +8027,43 @@
       <c r="A15">
         <v>2000</v>
       </c>
-      <c r="B15" s="14">
+      <c r="B15" s="22">
         <f>B75</f>
         <v>4.3828703703703705E-4</v>
       </c>
-      <c r="C15" s="14">
+      <c r="C15" s="22">
         <f t="shared" ref="C15:K15" si="5">C75</f>
         <v>4.248090277777778E-4</v>
       </c>
-      <c r="D15" s="14">
+      <c r="D15" s="22">
         <f t="shared" si="5"/>
         <v>4.3347222222222224E-4</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="22">
         <f t="shared" si="5"/>
         <v>4.6864004629629632E-4</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="22">
         <f t="shared" si="5"/>
         <v>5.8899305555555549E-4</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="22">
         <f t="shared" si="5"/>
         <v>7.083333333333333E-6</v>
       </c>
-      <c r="H15" s="14">
+      <c r="H15" s="22">
         <f t="shared" si="5"/>
         <v>7.6765046296296299E-6</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="22">
         <f t="shared" si="5"/>
         <v>8.0509259259259258E-6</v>
       </c>
-      <c r="J15" s="14">
+      <c r="J15" s="22">
         <f t="shared" si="5"/>
         <v>9.0364583333333322E-6</v>
       </c>
-      <c r="K15" s="14">
+      <c r="K15" s="22">
         <f t="shared" si="5"/>
         <v>8.9843749999999998E-6</v>
       </c>
@@ -8062,43 +8072,43 @@
       <c r="A16">
         <v>5000</v>
       </c>
-      <c r="B16" s="14">
+      <c r="B16" s="22">
         <f>B87</f>
         <v>7.6517650462962965E-4</v>
       </c>
-      <c r="C16" s="14">
+      <c r="C16" s="22">
         <f t="shared" ref="C16:K16" si="6">C87</f>
         <v>8.7484664351851851E-4</v>
       </c>
-      <c r="D16" s="14">
+      <c r="D16" s="22">
         <f t="shared" si="6"/>
         <v>9.6716435185185187E-4</v>
       </c>
-      <c r="E16" s="14">
+      <c r="E16" s="22">
         <f t="shared" si="6"/>
         <v>1.0985966435185187E-3</v>
       </c>
-      <c r="F16" s="14">
+      <c r="F16" s="22">
         <f t="shared" si="6"/>
         <v>1.2538252314814812E-3</v>
       </c>
-      <c r="G16" s="14">
+      <c r="G16" s="22">
         <f t="shared" si="6"/>
         <v>2.0708912037037034E-5</v>
       </c>
-      <c r="H16" s="14">
+      <c r="H16" s="22">
         <f t="shared" si="6"/>
         <v>2.1999421296296298E-5</v>
       </c>
-      <c r="I16" s="14">
+      <c r="I16" s="22">
         <f t="shared" si="6"/>
         <v>2.362037037037037E-5</v>
       </c>
-      <c r="J16" s="14">
+      <c r="J16" s="22">
         <f t="shared" si="6"/>
         <v>2.5034722222222224E-5</v>
       </c>
-      <c r="K16" s="14">
+      <c r="K16" s="22">
         <f t="shared" si="6"/>
         <v>2.4985532407407405E-5</v>
       </c>
@@ -8107,43 +8117,43 @@
       <c r="A17">
         <v>10000</v>
       </c>
-      <c r="B17" s="14">
+      <c r="B17" s="22">
         <f>B99</f>
         <v>1.4983420138888889E-3</v>
       </c>
-      <c r="C17" s="14">
+      <c r="C17" s="22">
         <f t="shared" ref="C17:K17" si="7">C99</f>
         <v>1.698631365740741E-3</v>
       </c>
-      <c r="D17" s="14">
+      <c r="D17" s="22">
         <f t="shared" si="7"/>
         <v>1.8708680555555557E-3</v>
       </c>
-      <c r="E17" s="14">
+      <c r="E17" s="22">
         <f t="shared" si="7"/>
         <v>2.1117621527777779E-3</v>
       </c>
-      <c r="F17" s="14">
+      <c r="F17" s="22">
         <f t="shared" si="7"/>
         <v>2.4301070601851853E-3</v>
       </c>
-      <c r="G17" s="14">
+      <c r="G17" s="22">
         <f t="shared" si="7"/>
         <v>4.2719907407407408E-5</v>
       </c>
-      <c r="H17" s="14">
+      <c r="H17" s="22">
         <f t="shared" si="7"/>
         <v>4.752604166666667E-5</v>
       </c>
-      <c r="I17" s="14">
+      <c r="I17" s="22">
         <f t="shared" si="7"/>
         <v>5.057638888888889E-5</v>
       </c>
-      <c r="J17" s="14">
+      <c r="J17" s="22">
         <f t="shared" si="7"/>
         <v>5.3961226851851852E-5</v>
       </c>
-      <c r="K17" s="14">
+      <c r="K17" s="22">
         <f t="shared" si="7"/>
         <v>5.7786458333333328E-5</v>
       </c>
